--- a/biology/Médecine/Lactation_induite/Lactation_induite.xlsx
+++ b/biology/Médecine/Lactation_induite/Lactation_induite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La lactation induite, ou lactation provoquée, est :
 Chez l'humain : le fait de déclencher la lactation hors contexte de grossesse : femme nullipare, homme cisgenre, ou chez les personnes transgenres, homme et femme. Le terme est quelquefois employé par abus de langage selon l'OMS pour parler de relactation.
@@ -516,13 +528,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chez l'humain
-Plusieurs études scientifiques indiquent que la relactation est le fait pour une femme qui a donné naissance à son propre enfant mais n'a pas allaité initialement ou a arrêté l'allaitement après un certain temps d'allaitement de quelques jours à plusieurs semaines, ou l'augmentation d'une production faible de lait sont considérés comme des relactations[1],[2]
-Une étude indique que la relactation est la reprise de l'allaitement chez le nourrisson qui n'était pas allaité auparavant ou qui a cessé d'être allaité en raison d'une maladie de la mère ou du nourrisson, de problèmes mammaires, du rejet de l'allaitement par le nourrisson, d'une production lactée insuffisante, du changement de point de vue de la mère sur l'allaitement ou de l’adoption[3].
-Selon l'OMS, les termes de lactation induite ou de lactation provoquée sont souvent employés abusivement, alors que le terme relactation devrait être employé[4].
-Pour l'OMS, une femme ayant déjà vécu une grossesse, qu’elle ait ou non donné naissance à l’enfant allaité actuellement et indépendamment de la date de sa dernière grossesse, est en relactation et non en lactation provoquée[4].
-Chez l'animal
-Le terme lactation induite est utilisé pour les animaux multipares également[5],[6],[7].
+          <t>Chez l'humain</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs études scientifiques indiquent que la relactation est le fait pour une femme qui a donné naissance à son propre enfant mais n'a pas allaité initialement ou a arrêté l'allaitement après un certain temps d'allaitement de quelques jours à plusieurs semaines, ou l'augmentation d'une production faible de lait sont considérés comme des relactations,
+Une étude indique que la relactation est la reprise de l'allaitement chez le nourrisson qui n'était pas allaité auparavant ou qui a cessé d'être allaité en raison d'une maladie de la mère ou du nourrisson, de problèmes mammaires, du rejet de l'allaitement par le nourrisson, d'une production lactée insuffisante, du changement de point de vue de la mère sur l'allaitement ou de l’adoption.
+Selon l'OMS, les termes de lactation induite ou de lactation provoquée sont souvent employés abusivement, alors que le terme relactation devrait être employé.
+Pour l'OMS, une femme ayant déjà vécu une grossesse, qu’elle ait ou non donné naissance à l’enfant allaité actuellement et indépendamment de la date de sa dernière grossesse, est en relactation et non en lactation provoquée.
 </t>
         </is>
       </c>
@@ -548,17 +563,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Objectif</t>
+          <t>Différences terminologiques</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chez l'humain
-L'objectif de la lactation induite est d'amorcer la production de lait sans avoir connu de grossesse préalable. Ainsi, une personne cisgenre ou transgenre peut souhaiter induire une lactation si elle n'est pas gestatrice[8].
-Par exemple, si un enfant a été adopté[9]; ou dans le cas de famille homoparentale comportant deux femmes[10], ou dans le cas de recours à une mère porteuse.
-Les femmes même ménopausées sont susceptibles de pouvoir allaiter par ce biais[réf. souhaitée]
-Chez l'animal
-La technique de lactation induite est utilisée en élevage animal, et principalement chez les vaches, pour des raisons de rentabilité économique.
+          <t>Chez l'animal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme lactation induite est utilisé pour les animaux multipares également.
 </t>
         </is>
       </c>
@@ -584,12 +600,90 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Objectif</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chez l'humain</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'objectif de la lactation induite est d'amorcer la production de lait sans avoir connu de grossesse préalable. Ainsi, une personne cisgenre ou transgenre peut souhaiter induire une lactation si elle n'est pas gestatrice.
+Par exemple, si un enfant a été adopté; ou dans le cas de famille homoparentale comportant deux femmes, ou dans le cas de recours à une mère porteuse.
+Les femmes même ménopausées sont susceptibles de pouvoir allaiter par ce biais[réf. souhaitée]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lactation_induite</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lactation_induite</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Objectif</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chez l'animal</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La technique de lactation induite est utilisée en élevage animal, et principalement chez les vaches, pour des raisons de rentabilité économique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lactation_induite</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lactation_induite</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Protocoles chez la femme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour pouvoir allaiter sans grossesse, il est nécessaire de suivre l'un des nombreux protocoles expérimentaux proposés. Aux États-Unis, ni l'American Academy of Pediatrics, ni l'American Academy of Family Physicians, ni l'American College of Obstetricians and Gynecologists ni l'Academy of Breastfeeding Medicine n'ont agréé l'un de ces protocoles[11]. Ce protocole peut consister à la prise d'une pilule contraceptive pendant plusieurs mois pour simuler une grossesse, puis l'arrêt de la pilule, la prise de dompéridone et la stimulation physique régulière des seins avec un tire-lait[10]. La dompéridone étant réduite ou arrêtée lorsque la lactation devient régulière et suffisante. Cette utilisation de la dompéridone se fait malgré les mises en garde du fabricant et des interdictions pour cet usage dans de nombreux pays, en raison des effets secondaires indésirables lors de la prise ou en cas d'arrêt brusque[11],[12]. Parmi ces risques, une étude de 2013 fait état de 200 morts subites cardiaques pour la France, malgré les précautions prises pour en limiter les risques[13].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour pouvoir allaiter sans grossesse, il est nécessaire de suivre l'un des nombreux protocoles expérimentaux proposés. Aux États-Unis, ni l'American Academy of Pediatrics, ni l'American Academy of Family Physicians, ni l'American College of Obstetricians and Gynecologists ni l'Academy of Breastfeeding Medicine n'ont agréé l'un de ces protocoles. Ce protocole peut consister à la prise d'une pilule contraceptive pendant plusieurs mois pour simuler une grossesse, puis l'arrêt de la pilule, la prise de dompéridone et la stimulation physique régulière des seins avec un tire-lait. La dompéridone étant réduite ou arrêtée lorsque la lactation devient régulière et suffisante. Cette utilisation de la dompéridone se fait malgré les mises en garde du fabricant et des interdictions pour cet usage dans de nombreux pays, en raison des effets secondaires indésirables lors de la prise ou en cas d'arrêt brusque,. Parmi ces risques, une étude de 2013 fait état de 200 morts subites cardiaques pour la France, malgré les précautions prises pour en limiter les risques.
 </t>
         </is>
       </c>
